--- a/Code/Results/Cases/Case_2_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.866360680628844</v>
+        <v>0.7432489451418292</v>
       </c>
       <c r="C2">
-        <v>0.3183590151123212</v>
+        <v>0.3275137255068472</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05140385050674645</v>
+        <v>0.1432144595564671</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.243824715367154</v>
+        <v>0.3768493239248585</v>
       </c>
       <c r="H2">
-        <v>0.2177365726389056</v>
+        <v>0.5425939907787836</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1499190150794476</v>
+        <v>0.1873566682000529</v>
       </c>
       <c r="M2">
-        <v>0.3307230574423414</v>
+        <v>0.1773456444137409</v>
       </c>
       <c r="N2">
-        <v>0.8319421165699694</v>
+        <v>1.231579395578748</v>
       </c>
       <c r="O2">
-        <v>0.9226417781374039</v>
+        <v>1.780361369930148</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.623851763504746</v>
+        <v>0.66954623271792</v>
       </c>
       <c r="C3">
-        <v>0.3022255839849919</v>
+        <v>0.3223261300460081</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05308899931710087</v>
+        <v>0.1446139863887028</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.2307538269427738</v>
+        <v>0.3777371580639723</v>
       </c>
       <c r="H3">
-        <v>0.217049619126314</v>
+        <v>0.5466047476233982</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1358821123731531</v>
+        <v>0.1846137862165946</v>
       </c>
       <c r="M3">
-        <v>0.2883916004269693</v>
+        <v>0.1651921032376222</v>
       </c>
       <c r="N3">
-        <v>0.8386245115014574</v>
+        <v>1.237017196794682</v>
       </c>
       <c r="O3">
-        <v>0.8931566713274037</v>
+        <v>1.790392869546423</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.47500088369307</v>
+        <v>0.6243102249437129</v>
       </c>
       <c r="C4">
-        <v>0.2923362654977808</v>
+        <v>0.319150910934539</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05420856119122419</v>
+        <v>0.1455307761656144</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.2234163587975502</v>
+        <v>0.3785928258561739</v>
       </c>
       <c r="H4">
-        <v>0.2170725694685203</v>
+        <v>0.54933331371371</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1274071436199478</v>
+        <v>0.1830184604745781</v>
       </c>
       <c r="M4">
-        <v>0.2624700987914395</v>
+        <v>0.1577708680731433</v>
       </c>
       <c r="N4">
-        <v>0.8436529536291957</v>
+        <v>1.240815561463641</v>
       </c>
       <c r="O4">
-        <v>0.8774337813927389</v>
+        <v>1.797758625050875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.414341651157912</v>
+        <v>0.6058820113603929</v>
       </c>
       <c r="C5">
-        <v>0.2883102009950136</v>
+        <v>0.3178596524363684</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05468570631531122</v>
+        <v>0.1459188416525059</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2205896951711921</v>
+        <v>0.3790194973410479</v>
       </c>
       <c r="H5">
-        <v>0.2171894840374833</v>
+        <v>0.5505121278861367</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1239875203257057</v>
+        <v>0.1823907598339503</v>
       </c>
       <c r="M5">
-        <v>0.2519214100192038</v>
+        <v>0.1547572144467004</v>
       </c>
       <c r="N5">
-        <v>0.8459285211538017</v>
+        <v>1.242479205144647</v>
       </c>
       <c r="O5">
-        <v>0.8715959746334931</v>
+        <v>1.801063408439802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.404268760569835</v>
+        <v>0.6028224125718964</v>
       </c>
       <c r="C6">
-        <v>0.2876419049462982</v>
+        <v>0.317645405809543</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05476618684640311</v>
+        <v>0.1459841537581834</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.2201299262331347</v>
+        <v>0.3790950524847716</v>
       </c>
       <c r="H6">
-        <v>0.2172152726729024</v>
+        <v>0.5507119105623133</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1234216866879905</v>
+        <v>0.1822878861687585</v>
       </c>
       <c r="M6">
-        <v>0.2501705982962044</v>
+        <v>0.154257444065518</v>
       </c>
       <c r="N6">
-        <v>0.8463198760026813</v>
+        <v>1.242762451403813</v>
       </c>
       <c r="O6">
-        <v>0.8706601673020771</v>
+        <v>1.801630471306439</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.47418283520534</v>
+        <v>0.6240616702117165</v>
       </c>
       <c r="C7">
-        <v>0.2922819530824796</v>
+        <v>0.3191334855537349</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05421491200939776</v>
+        <v>0.1455359511608227</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2233775881756017</v>
+        <v>0.3785982645005816</v>
       </c>
       <c r="H7">
-        <v>0.2170737162147987</v>
+        <v>0.5493489406970724</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1273608905104737</v>
+        <v>0.1830099042577302</v>
       </c>
       <c r="M7">
-        <v>0.2623277806334947</v>
+        <v>0.1577301818272545</v>
       </c>
       <c r="N7">
-        <v>0.8436827339579551</v>
+        <v>1.240837528856126</v>
       </c>
       <c r="O7">
-        <v>0.8773527830795587</v>
+        <v>1.797801967190324</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.782724346938465</v>
+        <v>0.7178333585451639</v>
       </c>
       <c r="C8">
-        <v>0.3127925626950372</v>
+        <v>0.3257230631415098</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05196701288728978</v>
+        <v>0.1436850958959868</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.239169136115315</v>
+        <v>0.3770909329118126</v>
       </c>
       <c r="H8">
-        <v>0.2174047753111665</v>
+        <v>0.5439217189654642</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1450479274893084</v>
+        <v>0.1863925322630919</v>
       </c>
       <c r="M8">
-        <v>0.3161106645071357</v>
+        <v>0.1731467083183134</v>
       </c>
       <c r="N8">
-        <v>0.8340502681672106</v>
+        <v>1.233359106966525</v>
       </c>
       <c r="O8">
-        <v>0.9119630563182994</v>
+        <v>1.783569740737505</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.38887753375235</v>
+        <v>0.9018093312985229</v>
       </c>
       <c r="C9">
-        <v>0.3531627357263005</v>
+        <v>0.3387181407347555</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04825216837464996</v>
+        <v>0.1405109702784477</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2760517832744327</v>
+        <v>0.3766043254576772</v>
       </c>
       <c r="H9">
-        <v>0.2217850254627223</v>
+        <v>0.5353880623315916</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1809762676201103</v>
+        <v>0.1937278303496015</v>
       </c>
       <c r="M9">
-        <v>0.4222896683329438</v>
+        <v>0.2036960296856947</v>
       </c>
       <c r="N9">
-        <v>0.8228016085785441</v>
+        <v>1.222330794884257</v>
       </c>
       <c r="O9">
-        <v>1.000116444341415</v>
+        <v>1.765241773877776</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.835975075909573</v>
+        <v>1.036976067903652</v>
       </c>
       <c r="C10">
-        <v>0.3829426103393558</v>
+        <v>0.3483025880940716</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04597393607050204</v>
+        <v>0.1384556492740403</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.3074228449038401</v>
+        <v>0.3777602487548819</v>
       </c>
       <c r="H10">
-        <v>0.2275735980227296</v>
+        <v>0.5304029709303251</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2082850706456298</v>
+        <v>0.1995421333308798</v>
       </c>
       <c r="M10">
-        <v>0.500967289935879</v>
+        <v>0.2263251390662049</v>
       </c>
       <c r="N10">
-        <v>0.8196313581100014</v>
+        <v>1.216433734424157</v>
       </c>
       <c r="O10">
-        <v>1.079282346549434</v>
+        <v>1.757632363173883</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.040013523833181</v>
+        <v>1.098455904810066</v>
       </c>
       <c r="C11">
-        <v>0.3965237739930103</v>
+        <v>0.3526693012730533</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04504199559641631</v>
+        <v>0.1375805206145282</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.3227790636956627</v>
+        <v>0.3786165109947746</v>
       </c>
       <c r="H11">
-        <v>0.2308346865885227</v>
+        <v>0.528413831723725</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2209428836223282</v>
+        <v>0.2022789438646839</v>
       </c>
       <c r="M11">
-        <v>0.5369608383626243</v>
+        <v>0.2366579888118849</v>
       </c>
       <c r="N11">
-        <v>0.8193978863350395</v>
+        <v>1.214227550079087</v>
       </c>
       <c r="O11">
-        <v>1.11890197327466</v>
+        <v>1.755445617550947</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.117393696161969</v>
+        <v>1.121734326974376</v>
       </c>
       <c r="C12">
-        <v>0.4016721451171179</v>
+        <v>0.3543236775471001</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04470468812548045</v>
+        <v>0.1372577242603459</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.3287640234468228</v>
+        <v>0.3789883977532895</v>
       </c>
       <c r="H12">
-        <v>0.2321660377670867</v>
+        <v>0.5277006399441433</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2257730050816491</v>
+        <v>0.2033284470411587</v>
       </c>
       <c r="M12">
-        <v>0.5506246478868917</v>
+        <v>0.2405761411733991</v>
       </c>
       <c r="N12">
-        <v>0.8194923928151212</v>
+        <v>1.213460438048799</v>
       </c>
       <c r="O12">
-        <v>1.13446591969506</v>
+        <v>1.754801106247243</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.100723005924294</v>
+        <v>1.116721044008898</v>
       </c>
       <c r="C13">
-        <v>0.4005630978508208</v>
+        <v>0.3539673452262946</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04477663005370758</v>
+        <v>0.1373268620870016</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.327467269909036</v>
+        <v>0.3789061845789519</v>
       </c>
       <c r="H13">
-        <v>0.2318749155896995</v>
+        <v>0.5278524574012238</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2247310601404564</v>
+        <v>0.2031018349010623</v>
       </c>
       <c r="M13">
-        <v>0.5476803191214614</v>
+        <v>0.239732063986061</v>
       </c>
       <c r="N13">
-        <v>0.8194637529938547</v>
+        <v>1.213622613631301</v>
       </c>
       <c r="O13">
-        <v>1.13108830051479</v>
+        <v>1.75493174545673</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.046377198462892</v>
+        <v>1.100371096349306</v>
       </c>
       <c r="C14">
-        <v>0.3969472202876148</v>
+        <v>0.3528053927890085</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04501392907432056</v>
+        <v>0.137553791747635</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.3232679627842572</v>
+        <v>0.3786461508844781</v>
       </c>
       <c r="H14">
-        <v>0.2309422479938519</v>
+        <v>0.5283543543661011</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2213395029715031</v>
+        <v>0.2023650243662445</v>
       </c>
       <c r="M14">
-        <v>0.5380842621030553</v>
+        <v>0.2369802322264221</v>
       </c>
       <c r="N14">
-        <v>0.8194019413923996</v>
+        <v>1.214163071087285</v>
       </c>
       <c r="O14">
-        <v>1.12017093687794</v>
+        <v>1.755388912972904</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.013104496668063</v>
+        <v>1.090355891292802</v>
       </c>
       <c r="C15">
-        <v>0.3947331223909174</v>
+        <v>0.3520937621954232</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04516133061312466</v>
+        <v>0.1376939118556297</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.3207183158890246</v>
+        <v>0.3784930803724791</v>
       </c>
       <c r="H15">
-        <v>0.2303837121081216</v>
+        <v>0.5286669963879405</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2192669748842491</v>
+        <v>0.2019154146039881</v>
       </c>
       <c r="M15">
-        <v>0.5322109509335178</v>
+        <v>0.2352953421615496</v>
       </c>
       <c r="N15">
-        <v>0.8193881808396952</v>
+        <v>1.214503008976962</v>
       </c>
       <c r="O15">
-        <v>1.113558074357542</v>
+        <v>1.755692853666773</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.822655600298731</v>
+        <v>1.032957924609207</v>
       </c>
       <c r="C16">
-        <v>0.3820557836880738</v>
+        <v>0.3480173336748322</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04603699109051895</v>
+        <v>0.1385140444063557</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.3064422820231414</v>
+        <v>0.3777109496560769</v>
       </c>
       <c r="H16">
-        <v>0.2273736302253866</v>
+        <v>0.5305385711529311</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2074628405711536</v>
+        <v>0.1993651181719969</v>
       </c>
       <c r="M16">
-        <v>0.4986194989281998</v>
+        <v>0.2256506218042631</v>
       </c>
       <c r="N16">
-        <v>0.819671704389151</v>
+        <v>1.216587484501318</v>
       </c>
       <c r="O16">
-        <v>1.076769235555076</v>
+        <v>1.757800945677729</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.706003084399356</v>
+        <v>0.9977429798786943</v>
       </c>
       <c r="C17">
-        <v>0.3742877781963472</v>
+        <v>0.3455181740333586</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04660133363613195</v>
+        <v>0.1390324902808553</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2979719508873728</v>
+        <v>0.3773158566094565</v>
       </c>
       <c r="H17">
-        <v>0.2256921137793455</v>
+        <v>0.5317580710946856</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2002836987775538</v>
+        <v>0.1978240659945101</v>
       </c>
       <c r="M17">
-        <v>0.478067380401157</v>
+        <v>0.2197436488098035</v>
       </c>
       <c r="N17">
-        <v>0.8201615241219571</v>
+        <v>1.217988131077391</v>
       </c>
       <c r="O17">
-        <v>1.055153449769904</v>
+        <v>1.759420877572268</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.638967585671139</v>
+        <v>0.9774875925822357</v>
       </c>
       <c r="C18">
-        <v>0.3698230034122219</v>
+        <v>0.3440813640669091</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04693572248228683</v>
+        <v>0.1393363203355609</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2932013235355839</v>
+        <v>0.3771197035684821</v>
       </c>
       <c r="H18">
-        <v>0.2247836538223993</v>
+        <v>0.5324857193706407</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1961763593707531</v>
+        <v>0.1969463439293406</v>
       </c>
       <c r="M18">
-        <v>0.466265125382229</v>
+        <v>0.2163497766440869</v>
       </c>
       <c r="N18">
-        <v>0.8205564464025628</v>
+        <v>1.218838599547709</v>
       </c>
       <c r="O18">
-        <v>1.043057418827317</v>
+        <v>1.760472596561272</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.616280181843308</v>
+        <v>0.9706293943953597</v>
       </c>
       <c r="C19">
-        <v>0.3683118366581652</v>
+        <v>0.3435950000059762</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0470506056994715</v>
+        <v>0.139440159872394</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2916030593413552</v>
+        <v>0.3770586261533282</v>
       </c>
       <c r="H19">
-        <v>0.2244859656796194</v>
+        <v>0.5327365929299077</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.19478935695102</v>
+        <v>0.1966506503513727</v>
       </c>
       <c r="M19">
-        <v>0.4622721726120176</v>
+        <v>0.2152013063867741</v>
       </c>
       <c r="N19">
-        <v>0.8207093321358201</v>
+        <v>1.219134262947222</v>
       </c>
       <c r="O19">
-        <v>1.039018511769171</v>
+        <v>1.760849289188911</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.718414588884968</v>
+        <v>1.001491752223046</v>
       </c>
       <c r="C20">
-        <v>0.3751143629671105</v>
+        <v>0.3457841487562945</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04654024066108153</v>
+        <v>0.1389767178388377</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2988630523046822</v>
+        <v>0.3773546959220795</v>
       </c>
       <c r="H20">
-        <v>0.2258649950130973</v>
+        <v>0.5316255392194051</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2010456408852974</v>
+        <v>0.197987218898561</v>
       </c>
       <c r="M20">
-        <v>0.4802532119420846</v>
+        <v>0.2203720789028125</v>
       </c>
       <c r="N20">
-        <v>0.8200976028765155</v>
+        <v>1.217834389039112</v>
       </c>
       <c r="O20">
-        <v>1.057419332321075</v>
+        <v>1.759236014100281</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.062336572200195</v>
+        <v>1.105173556223974</v>
       </c>
       <c r="C21">
-        <v>0.3980091376249391</v>
+        <v>0.3531466660875395</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04494380050721869</v>
+        <v>0.1374869037960469</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.3244966757934407</v>
+        <v>0.3787212351996629</v>
       </c>
       <c r="H21">
-        <v>0.2312135264429571</v>
+        <v>0.5282058481460012</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2223346588436925</v>
+        <v>0.2025810876787517</v>
       </c>
       <c r="M21">
-        <v>0.5409018994419696</v>
+        <v>0.2377883693254716</v>
       </c>
       <c r="N21">
-        <v>0.819415057340251</v>
+        <v>1.214002472854489</v>
       </c>
       <c r="O21">
-        <v>1.123362060146064</v>
+        <v>1.755249648037989</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.287792344789239</v>
+        <v>1.172919431616663</v>
       </c>
       <c r="C22">
-        <v>0.413004443835689</v>
+        <v>0.3579630640243181</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04399164240409625</v>
+        <v>0.1365633228877865</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.3422470446608656</v>
+        <v>0.379892079673894</v>
       </c>
       <c r="H22">
-        <v>0.2352744179920592</v>
+        <v>0.5262043313898488</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2364648240785243</v>
+        <v>0.2056599568335997</v>
       </c>
       <c r="M22">
-        <v>0.5807389472601301</v>
+        <v>0.24920185408061</v>
       </c>
       <c r="N22">
-        <v>0.8200397787154969</v>
+        <v>1.211896243870768</v>
       </c>
       <c r="O22">
-        <v>1.169750065201555</v>
+        <v>1.753714377650482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.16739233066977</v>
+        <v>1.136764151722161</v>
       </c>
       <c r="C23">
-        <v>0.4049980113062048</v>
+        <v>0.3553920988039323</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04449128247512224</v>
+        <v>0.1370516746870658</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.3326772891466305</v>
+        <v>0.3792417248798756</v>
       </c>
       <c r="H23">
-        <v>0.2330531771795705</v>
+        <v>0.5272512215384921</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2289023966568777</v>
+        <v>0.2040097309374289</v>
       </c>
       <c r="M23">
-        <v>0.5594572644108524</v>
+        <v>0.2431075135547047</v>
       </c>
       <c r="N23">
-        <v>0.8196052214244105</v>
+        <v>1.212984007734818</v>
       </c>
       <c r="O23">
-        <v>1.144676169848537</v>
+        <v>1.754435790463617</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.71280325716134</v>
+        <v>0.9997969628035435</v>
       </c>
       <c r="C24">
-        <v>0.3747406604367853</v>
+        <v>0.3456639016022649</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04656782987527297</v>
+        <v>0.139001914590601</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2984598777802745</v>
+        <v>0.3773370401434022</v>
       </c>
       <c r="H24">
-        <v>0.2257866543827305</v>
+        <v>0.5316853742044003</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2007011046556215</v>
+        <v>0.1979134317695639</v>
       </c>
       <c r="M24">
-        <v>0.4792649560159674</v>
+        <v>0.2200879590190254</v>
       </c>
       <c r="N24">
-        <v>0.8201261493927774</v>
+        <v>1.217903754949248</v>
       </c>
       <c r="O24">
-        <v>1.056393898454104</v>
+        <v>1.759319215862718</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.224671328319801</v>
+        <v>0.8520350443448592</v>
       </c>
       <c r="C25">
-        <v>0.3422227664322008</v>
+        <v>0.3351955973779326</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04918005374482615</v>
+        <v>0.141320996577039</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2653741531763814</v>
+        <v>0.3764707718717233</v>
       </c>
       <c r="H25">
-        <v>0.2201710924870639</v>
+        <v>0.5374709704719649</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1711081532667293</v>
+        <v>0.1916685842924153</v>
       </c>
       <c r="M25">
-        <v>0.3934660113100321</v>
+        <v>0.1953985702206822</v>
       </c>
       <c r="N25">
-        <v>0.8249831905099327</v>
+        <v>1.224926118756144</v>
       </c>
       <c r="O25">
-        <v>0.9738940985268414</v>
+        <v>1.769172653912634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7432489451418292</v>
+        <v>1.866360680628731</v>
       </c>
       <c r="C2">
-        <v>0.3275137255068472</v>
+        <v>0.3183590151121081</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1432144595564671</v>
+        <v>0.05140385050671803</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3768493239248585</v>
+        <v>0.2438247153671327</v>
       </c>
       <c r="H2">
-        <v>0.5425939907787836</v>
+        <v>0.2177365726387919</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1873566682000529</v>
+        <v>0.1499190150794405</v>
       </c>
       <c r="M2">
-        <v>0.1773456444137409</v>
+        <v>0.3307230574423414</v>
       </c>
       <c r="N2">
-        <v>1.231579395578748</v>
+        <v>0.8319421165700263</v>
       </c>
       <c r="O2">
-        <v>1.780361369930148</v>
+        <v>0.9226417781373328</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.66954623271792</v>
+        <v>1.623851763504604</v>
       </c>
       <c r="C3">
-        <v>0.3223261300460081</v>
+        <v>0.3022255839847503</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1446139863887028</v>
+        <v>0.05308899931708666</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.3777371580639723</v>
+        <v>0.2307538269428235</v>
       </c>
       <c r="H3">
-        <v>0.5466047476233982</v>
+        <v>0.2170496191262004</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1846137862165946</v>
+        <v>0.1358821123730962</v>
       </c>
       <c r="M3">
-        <v>0.1651921032376222</v>
+        <v>0.2883916004269764</v>
       </c>
       <c r="N3">
-        <v>1.237017196794682</v>
+        <v>0.8386245115014006</v>
       </c>
       <c r="O3">
-        <v>1.790392869546423</v>
+        <v>0.8931566713274464</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6243102249437129</v>
+        <v>1.475000883692957</v>
       </c>
       <c r="C4">
-        <v>0.319150910934539</v>
+        <v>0.2923362654977666</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1455307761656144</v>
+        <v>0.05420856119120199</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3785928258561739</v>
+        <v>0.2234163587975999</v>
       </c>
       <c r="H4">
-        <v>0.54933331371371</v>
+        <v>0.2170725694685203</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1830184604745781</v>
+        <v>0.1274071436200543</v>
       </c>
       <c r="M4">
-        <v>0.1577708680731433</v>
+        <v>0.2624700987914501</v>
       </c>
       <c r="N4">
-        <v>1.240815561463641</v>
+        <v>0.8436529536291388</v>
       </c>
       <c r="O4">
-        <v>1.797758625050875</v>
+        <v>0.8774337813926678</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6058820113603929</v>
+        <v>1.414341651157912</v>
       </c>
       <c r="C5">
-        <v>0.3178596524363684</v>
+        <v>0.2883102009949994</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1459188416525059</v>
+        <v>0.05468570631532277</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3790194973410479</v>
+        <v>0.2205896951711352</v>
       </c>
       <c r="H5">
-        <v>0.5505121278861367</v>
+        <v>0.2171894840374904</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1823907598339503</v>
+        <v>0.1239875203257554</v>
       </c>
       <c r="M5">
-        <v>0.1547572144467004</v>
+        <v>0.2519214100192073</v>
       </c>
       <c r="N5">
-        <v>1.242479205144647</v>
+        <v>0.8459285211537875</v>
       </c>
       <c r="O5">
-        <v>1.801063408439802</v>
+        <v>0.8715959746335642</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6028224125718964</v>
+        <v>1.404268760569693</v>
       </c>
       <c r="C6">
-        <v>0.317645405809543</v>
+        <v>0.2876419049462413</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1459841537581834</v>
+        <v>0.05476618684640311</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3790950524847716</v>
+        <v>0.2201299262331204</v>
       </c>
       <c r="H6">
-        <v>0.5507119105623133</v>
+        <v>0.2172152726729024</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1822878861687585</v>
+        <v>0.1234216866879905</v>
       </c>
       <c r="M6">
-        <v>0.154257444065518</v>
+        <v>0.2501705982961653</v>
       </c>
       <c r="N6">
-        <v>1.242762451403813</v>
+        <v>0.8463198760026813</v>
       </c>
       <c r="O6">
-        <v>1.801630471306439</v>
+        <v>0.8706601673021197</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6240616702117165</v>
+        <v>1.47418283520534</v>
       </c>
       <c r="C7">
-        <v>0.3191334855537349</v>
+        <v>0.2922819530827212</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1455359511608227</v>
+        <v>0.05421491200939688</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3785982645005816</v>
+        <v>0.2233775881756372</v>
       </c>
       <c r="H7">
-        <v>0.5493489406970724</v>
+        <v>0.217073716214685</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1830099042577302</v>
+        <v>0.1273608905105945</v>
       </c>
       <c r="M7">
-        <v>0.1577301818272545</v>
+        <v>0.2623277806334947</v>
       </c>
       <c r="N7">
-        <v>1.240837528856126</v>
+        <v>0.8436827339579551</v>
       </c>
       <c r="O7">
-        <v>1.797801967190324</v>
+        <v>0.8773527830795445</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7178333585451639</v>
+        <v>1.782724346938494</v>
       </c>
       <c r="C8">
-        <v>0.3257230631415098</v>
+        <v>0.312792562695023</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1436850958959868</v>
+        <v>0.05196701288727645</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.3770909329118126</v>
+        <v>0.2391691361152084</v>
       </c>
       <c r="H8">
-        <v>0.5439217189654642</v>
+        <v>0.2174047753111665</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1863925322630919</v>
+        <v>0.1450479274892871</v>
       </c>
       <c r="M8">
-        <v>0.1731467083183134</v>
+        <v>0.3161106645071499</v>
       </c>
       <c r="N8">
-        <v>1.233359106966525</v>
+        <v>0.8340502681672177</v>
       </c>
       <c r="O8">
-        <v>1.783569740737505</v>
+        <v>0.9119630563183136</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9018093312985229</v>
+        <v>2.388877533752236</v>
       </c>
       <c r="C9">
-        <v>0.3387181407347555</v>
+        <v>0.3531627357261016</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1405109702784477</v>
+        <v>0.0482521683746473</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.3766043254576772</v>
+        <v>0.2760517832744398</v>
       </c>
       <c r="H9">
-        <v>0.5353880623315916</v>
+        <v>0.2217850254627223</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1937278303496015</v>
+        <v>0.1809762676200179</v>
       </c>
       <c r="M9">
-        <v>0.2036960296856947</v>
+        <v>0.4222896683329438</v>
       </c>
       <c r="N9">
-        <v>1.222330794884257</v>
+        <v>0.8228016085785441</v>
       </c>
       <c r="O9">
-        <v>1.765241773877776</v>
+        <v>1.000116444341344</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.036976067903652</v>
+        <v>2.835975075909573</v>
       </c>
       <c r="C10">
-        <v>0.3483025880940716</v>
+        <v>0.3829426103393558</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1384556492740403</v>
+        <v>0.04597393607051714</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.3777602487548819</v>
+        <v>0.307422844903769</v>
       </c>
       <c r="H10">
-        <v>0.5304029709303251</v>
+        <v>0.2275735980227154</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1995421333308798</v>
+        <v>0.2082850706455872</v>
       </c>
       <c r="M10">
-        <v>0.2263251390662049</v>
+        <v>0.5009672899358861</v>
       </c>
       <c r="N10">
-        <v>1.216433734424157</v>
+        <v>0.8196313581100014</v>
       </c>
       <c r="O10">
-        <v>1.757632363173883</v>
+        <v>1.079282346549434</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.098455904810066</v>
+        <v>3.040013523833125</v>
       </c>
       <c r="C11">
-        <v>0.3526693012730533</v>
+        <v>0.3965237739927261</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1375805206145282</v>
+        <v>0.04504199559640121</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.3786165109947746</v>
+        <v>0.3227790636956627</v>
       </c>
       <c r="H11">
-        <v>0.528413831723725</v>
+        <v>0.230834686588409</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2022789438646839</v>
+        <v>0.2209428836222429</v>
       </c>
       <c r="M11">
-        <v>0.2366579888118849</v>
+        <v>0.5369608383626101</v>
       </c>
       <c r="N11">
-        <v>1.214227550079087</v>
+        <v>0.8193978863350537</v>
       </c>
       <c r="O11">
-        <v>1.755445617550947</v>
+        <v>1.11890197327466</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.121734326974376</v>
+        <v>3.117393696162026</v>
       </c>
       <c r="C12">
-        <v>0.3543236775471001</v>
+        <v>0.4016721451172032</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1372577242603459</v>
+        <v>0.04470468812549377</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.3789883977532895</v>
+        <v>0.3287640234468228</v>
       </c>
       <c r="H12">
-        <v>0.5277006399441433</v>
+        <v>0.232166037766973</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2033284470411587</v>
+        <v>0.2257730050817344</v>
       </c>
       <c r="M12">
-        <v>0.2405761411733991</v>
+        <v>0.5506246478868917</v>
       </c>
       <c r="N12">
-        <v>1.213460438048799</v>
+        <v>0.8194923928151212</v>
       </c>
       <c r="O12">
-        <v>1.754801106247243</v>
+        <v>1.13446591969506</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.116721044008898</v>
+        <v>3.100723005924294</v>
       </c>
       <c r="C13">
-        <v>0.3539673452262946</v>
+        <v>0.4005630978508918</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1373268620870016</v>
+        <v>0.0447766300537209</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.3789061845789519</v>
+        <v>0.3274672699090218</v>
       </c>
       <c r="H13">
-        <v>0.5278524574012238</v>
+        <v>0.2318749155898132</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2031018349010623</v>
+        <v>0.2247310601404706</v>
       </c>
       <c r="M13">
-        <v>0.239732063986061</v>
+        <v>0.5476803191214543</v>
       </c>
       <c r="N13">
-        <v>1.213622613631301</v>
+        <v>0.8194637529939257</v>
       </c>
       <c r="O13">
-        <v>1.75493174545673</v>
+        <v>1.13108830051479</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.100371096349306</v>
+        <v>3.046377198462608</v>
       </c>
       <c r="C14">
-        <v>0.3528053927890085</v>
+        <v>0.3969472202877427</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.137553791747635</v>
+        <v>0.04501392907430457</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3786461508844781</v>
+        <v>0.323267962784314</v>
       </c>
       <c r="H14">
-        <v>0.5283543543661011</v>
+        <v>0.2309422479938803</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2023650243662445</v>
+        <v>0.2213395029715741</v>
       </c>
       <c r="M14">
-        <v>0.2369802322264221</v>
+        <v>0.5380842621030553</v>
       </c>
       <c r="N14">
-        <v>1.214163071087285</v>
+        <v>0.8194019413924565</v>
       </c>
       <c r="O14">
-        <v>1.755388912972904</v>
+        <v>1.120170936877997</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.090355891292802</v>
+        <v>3.01310449666795</v>
       </c>
       <c r="C15">
-        <v>0.3520937621954232</v>
+        <v>0.3947331223910311</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1376939118556297</v>
+        <v>0.04516133061312733</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.3784930803724791</v>
+        <v>0.320718315889053</v>
       </c>
       <c r="H15">
-        <v>0.5286669963879405</v>
+        <v>0.2303837121081216</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2019154146039881</v>
+        <v>0.2192669748842349</v>
       </c>
       <c r="M15">
-        <v>0.2352953421615496</v>
+        <v>0.5322109509335036</v>
       </c>
       <c r="N15">
-        <v>1.214503008976962</v>
+        <v>0.8193881808396952</v>
       </c>
       <c r="O15">
-        <v>1.755692853666773</v>
+        <v>1.113558074357542</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.032957924609207</v>
+        <v>2.822655600298731</v>
       </c>
       <c r="C16">
-        <v>0.3480173336748322</v>
+        <v>0.3820557836877754</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1385140444063557</v>
+        <v>0.04603699109053405</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3777109496560769</v>
+        <v>0.3064422820232124</v>
       </c>
       <c r="H16">
-        <v>0.5305385711529311</v>
+        <v>0.2273736302252729</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1993651181719969</v>
+        <v>0.2074628405712104</v>
       </c>
       <c r="M16">
-        <v>0.2256506218042631</v>
+        <v>0.4986194989281927</v>
       </c>
       <c r="N16">
-        <v>1.216587484501318</v>
+        <v>0.8196717043891084</v>
       </c>
       <c r="O16">
-        <v>1.757800945677729</v>
+        <v>1.076769235555133</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9977429798786943</v>
+        <v>2.706003084399413</v>
       </c>
       <c r="C17">
-        <v>0.3455181740333586</v>
+        <v>0.374287778196404</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1390324902808553</v>
+        <v>0.04660133363613284</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.3773158566094565</v>
+        <v>0.2979719508873302</v>
       </c>
       <c r="H17">
-        <v>0.5317580710946856</v>
+        <v>0.2256921137793455</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1978240659945101</v>
+        <v>0.200283698777568</v>
       </c>
       <c r="M17">
-        <v>0.2197436488098035</v>
+        <v>0.4780673804011428</v>
       </c>
       <c r="N17">
-        <v>1.217988131077391</v>
+        <v>0.8201615241219429</v>
       </c>
       <c r="O17">
-        <v>1.759420877572268</v>
+        <v>1.055153449769904</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9774875925822357</v>
+        <v>2.638967585671082</v>
       </c>
       <c r="C18">
-        <v>0.3440813640669091</v>
+        <v>0.3698230034123924</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1393363203355609</v>
+        <v>0.04693572248228506</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.3771197035684821</v>
+        <v>0.2932013235355839</v>
       </c>
       <c r="H18">
-        <v>0.5324857193706407</v>
+        <v>0.2247836538222856</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1969463439293406</v>
+        <v>0.1961763593707531</v>
       </c>
       <c r="M18">
-        <v>0.2163497766440869</v>
+        <v>0.466265125382229</v>
       </c>
       <c r="N18">
-        <v>1.218838599547709</v>
+        <v>0.8205564464026196</v>
       </c>
       <c r="O18">
-        <v>1.760472596561272</v>
+        <v>1.04305741882726</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9706293943953597</v>
+        <v>2.616280181843365</v>
       </c>
       <c r="C19">
-        <v>0.3435950000059762</v>
+        <v>0.3683118366579521</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.139440159872394</v>
+        <v>0.0470506056994564</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.3770586261533282</v>
+        <v>0.2916030593413552</v>
       </c>
       <c r="H19">
-        <v>0.5327365929299077</v>
+        <v>0.2244859656796194</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1966506503513727</v>
+        <v>0.19478935695102</v>
       </c>
       <c r="M19">
-        <v>0.2152013063867741</v>
+        <v>0.4622721726120247</v>
       </c>
       <c r="N19">
-        <v>1.219134262947222</v>
+        <v>0.8207093321358201</v>
       </c>
       <c r="O19">
-        <v>1.760849289188911</v>
+        <v>1.039018511769171</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.001491752223046</v>
+        <v>2.718414588885082</v>
       </c>
       <c r="C20">
-        <v>0.3457841487562945</v>
+        <v>0.3751143629671105</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1389767178388377</v>
+        <v>0.04654024066109397</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3773546959220795</v>
+        <v>0.2988630523046965</v>
       </c>
       <c r="H20">
-        <v>0.5316255392194051</v>
+        <v>0.2258649950130973</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.197987218898561</v>
+        <v>0.2010456408852832</v>
       </c>
       <c r="M20">
-        <v>0.2203720789028125</v>
+        <v>0.4802532119420704</v>
       </c>
       <c r="N20">
-        <v>1.217834389039112</v>
+        <v>0.8200976028765439</v>
       </c>
       <c r="O20">
-        <v>1.759236014100281</v>
+        <v>1.057419332321132</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.105173556223974</v>
+        <v>3.062336572200252</v>
       </c>
       <c r="C21">
-        <v>0.3531466660875395</v>
+        <v>0.3980091376247827</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1374869037960469</v>
+        <v>0.04494380050720448</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3787212351996629</v>
+        <v>0.3244966757935117</v>
       </c>
       <c r="H21">
-        <v>0.5282058481460012</v>
+        <v>0.2312135264429571</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2025810876787517</v>
+        <v>0.2223346588436925</v>
       </c>
       <c r="M21">
-        <v>0.2377883693254716</v>
+        <v>0.5409018994419696</v>
       </c>
       <c r="N21">
-        <v>1.214002472854489</v>
+        <v>0.8194150573402226</v>
       </c>
       <c r="O21">
-        <v>1.755249648037989</v>
+        <v>1.123362060146036</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.172919431616663</v>
+        <v>3.287792344789182</v>
       </c>
       <c r="C22">
-        <v>0.3579630640243181</v>
+        <v>0.413004443835149</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1365633228877865</v>
+        <v>0.04399164240409803</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.379892079673894</v>
+        <v>0.3422470446609083</v>
       </c>
       <c r="H22">
-        <v>0.5262043313898488</v>
+        <v>0.2352744179920592</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2056599568335997</v>
+        <v>0.2364648240785101</v>
       </c>
       <c r="M22">
-        <v>0.24920185408061</v>
+        <v>0.5807389472601372</v>
       </c>
       <c r="N22">
-        <v>1.211896243870768</v>
+        <v>0.8200397787154543</v>
       </c>
       <c r="O22">
-        <v>1.753714377650482</v>
+        <v>1.169750065201498</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.136764151722161</v>
+        <v>3.1673923306696</v>
       </c>
       <c r="C23">
-        <v>0.3553920988039323</v>
+        <v>0.4049980113059632</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1370516746870658</v>
+        <v>0.04449128247511958</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.3792417248798756</v>
+        <v>0.3326772891466305</v>
       </c>
       <c r="H23">
-        <v>0.5272512215384921</v>
+        <v>0.2330531771795705</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2040097309374289</v>
+        <v>0.2289023966568635</v>
       </c>
       <c r="M23">
-        <v>0.2431075135547047</v>
+        <v>0.5594572644108595</v>
       </c>
       <c r="N23">
-        <v>1.212984007734818</v>
+        <v>0.8196052214244531</v>
       </c>
       <c r="O23">
-        <v>1.754435790463617</v>
+        <v>1.144676169848566</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9997969628035435</v>
+        <v>2.712803257161511</v>
       </c>
       <c r="C24">
-        <v>0.3456639016022649</v>
+        <v>0.3747406604367995</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.139001914590601</v>
+        <v>0.04656782987528363</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3773370401434022</v>
+        <v>0.2984598777802603</v>
       </c>
       <c r="H24">
-        <v>0.5316853742044003</v>
+        <v>0.2257866543826168</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1979134317695639</v>
+        <v>0.2007011046556642</v>
       </c>
       <c r="M24">
-        <v>0.2200879590190254</v>
+        <v>0.4792649560159745</v>
       </c>
       <c r="N24">
-        <v>1.217903754949248</v>
+        <v>0.8201261493927205</v>
       </c>
       <c r="O24">
-        <v>1.759319215862718</v>
+        <v>1.056393898454019</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8520350443448592</v>
+        <v>2.224671328319801</v>
       </c>
       <c r="C25">
-        <v>0.3351955973779326</v>
+        <v>0.3422227664321866</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.141320996577039</v>
+        <v>0.04918005374485102</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3764707718717233</v>
+        <v>0.2653741531763814</v>
       </c>
       <c r="H25">
-        <v>0.5374709704719649</v>
+        <v>0.2201710924870568</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1916685842924153</v>
+        <v>0.1711081532666583</v>
       </c>
       <c r="M25">
-        <v>0.1953985702206822</v>
+        <v>0.3934660113100392</v>
       </c>
       <c r="N25">
-        <v>1.224926118756144</v>
+        <v>0.8249831905099185</v>
       </c>
       <c r="O25">
-        <v>1.769172653912634</v>
+        <v>0.9738940985268414</v>
       </c>
     </row>
   </sheetData>
